--- a/base futbol.xlsx
+++ b/base futbol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
   <si>
     <t>Tabla 1</t>
   </si>
@@ -1802,7 +1802,10 @@
     <t xml:space="preserve"> Club Sportivo Internacional</t>
   </si>
   <si>
-    <t xml:space="preserve"> Español Foot-Ball Club *</t>
+    <t xml:space="preserve"> Español Foot-Ball Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Español Foot-Ball Club </t>
   </si>
   <si>
     <t xml:space="preserve"> Tarrasa Fútbol Club</t>
@@ -1835,9 +1838,6 @@
     <t xml:space="preserve"> Foot-Ball Club Cabañal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Español Foot-Ball Club</t>
-  </si>
-  <si>
     <t>1911</t>
   </si>
   <si>
@@ -1868,12 +1868,18 @@
     <t xml:space="preserve"> Iberia Sport Club</t>
   </si>
   <si>
+    <t>Iberia</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alicante Club de Fútbol</t>
   </si>
   <si>
     <t xml:space="preserve"> Agrupación Deportiva Ferroviaria</t>
   </si>
   <si>
+    <t>A.D. Ferroviaria</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Club Polideportivo Mérida</t>
   </si>
   <si>
@@ -1886,6 +1892,9 @@
     <t xml:space="preserve"> Imperio Club de Fútbol</t>
   </si>
   <si>
+    <t>Imperio</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Unión Deportiva Salamanca</t>
   </si>
   <si>
@@ -1895,9 +1904,15 @@
     <t xml:space="preserve"> Club de Fútbol Villarreal de Educación y Descanso</t>
   </si>
   <si>
+    <t>Villarreal E y D</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Club Deportivo Nacional de Madrid</t>
   </si>
   <si>
+    <t>Nacional de Madrid</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Club de Fútbol Extremadura</t>
   </si>
   <si>
@@ -1979,6 +1994,9 @@
     <t xml:space="preserve"> Real Madrid Club de Fútbol "C"</t>
   </si>
   <si>
+    <t>Madrid C</t>
+  </si>
+  <si>
     <t>1962</t>
   </si>
   <si>
@@ -1986,6 +2004,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Fútbol Club Barcelona "C"</t>
+  </si>
+  <si>
+    <t>Barcelona C</t>
   </si>
   <si>
     <t xml:space="preserve"> Club Polideportivo Ejido</t>
@@ -2049,7 +2070,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2061,13 +2082,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,8 +2112,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2099,6 +2131,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -2112,7 +2166,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -2121,7 +2175,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2130,43 +2184,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,28 +2214,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2206,47 +2275,59 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2266,8 +2347,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -2286,10 +2369,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -2466,11 +2549,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2479,7 +2565,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2494,12 +2580,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -2756,10 +2842,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3050,7 +3136,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3331,21 +3417,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G251"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.2344" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.2344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.2344" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2344" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2344" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2344" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2344" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3353,4422 +3437,4594 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>1890</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="E6" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="E7" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="A8" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="12">
+      <c r="E8" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="A9" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C10" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="D10" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="9">
+      <c r="A11" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="A12" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="B12" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="A13" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" t="s" s="12">
+      <c r="D13" s="15"/>
+      <c r="E13" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="B14" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="A15" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" t="s" s="12">
+      <c r="D15" s="15"/>
+      <c r="E15" t="s" s="14">
         <v>56</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="A16" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B16" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" t="s" s="12">
+      <c r="D16" s="15"/>
+      <c r="E16" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="44.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="A17" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="B17" t="s" s="10">
+      <c r="B17" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="14">
         <v>63</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="A18" t="s" s="11">
         <v>64</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="B18" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="14">
         <v>66</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="14">
         <v>67</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="A19" t="s" s="11">
         <v>68</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="A20" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="B20" t="s" s="10">
+      <c r="B20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="A21" t="s" s="11">
         <v>75</v>
       </c>
-      <c r="B21" t="s" s="10">
+      <c r="B21" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="14">
         <v>77</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="14">
         <v>76</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="A22" t="s" s="11">
         <v>78</v>
       </c>
-      <c r="B22" t="s" s="10">
+      <c r="B22" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="14">
         <v>81</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="14">
         <v>79</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="9">
+      <c r="A23" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="B23" t="s" s="10">
+      <c r="B23" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="14">
         <v>86</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="9">
+      <c r="A24" t="s" s="11">
         <v>87</v>
       </c>
-      <c r="B24" t="s" s="10">
+      <c r="B24" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" t="s" s="12">
+      <c r="D24" s="15"/>
+      <c r="E24" t="s" s="14">
         <v>88</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="32.05" customHeight="1">
-      <c r="A25" t="s" s="9">
+      <c r="A25" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="B25" t="s" s="10">
+      <c r="B25" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" t="s" s="14">
         <v>91</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="14">
         <v>92</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" t="s" s="9">
+      <c r="A26" t="s" s="11">
         <v>93</v>
       </c>
-      <c r="B26" t="s" s="10">
+      <c r="B26" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="14">
         <v>94</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="A27" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="B27" t="s" s="10">
+      <c r="B27" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" t="s" s="12">
+      <c r="D27" s="15"/>
+      <c r="E27" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="9">
+      <c r="A28" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="B28" t="s" s="10">
+      <c r="B28" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="14">
         <v>101</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="14">
         <v>100</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="32.05" customHeight="1">
-      <c r="A29" t="s" s="9">
+      <c r="A29" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="B29" t="s" s="10">
+      <c r="B29" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="14">
         <v>104</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="14">
         <v>105</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="14">
         <v>103</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="32.05" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="A30" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="B30" t="s" s="10">
+      <c r="B30" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" t="s" s="12">
+      <c r="D30" s="15"/>
+      <c r="E30" t="s" s="14">
         <v>107</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="9">
+      <c r="A31" t="s" s="11">
         <v>109</v>
       </c>
-      <c r="B31" t="s" s="10">
+      <c r="B31" t="s" s="12">
         <v>110</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="14">
         <v>111</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="14">
         <v>112</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="32.05" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="A32" t="s" s="11">
         <v>113</v>
       </c>
-      <c r="B32" t="s" s="10">
+      <c r="B32" t="s" s="12">
         <v>114</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="14">
         <v>115</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="14">
         <v>116</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="32.05" customHeight="1">
-      <c r="A33" t="s" s="9">
+      <c r="A33" t="s" s="11">
         <v>117</v>
       </c>
-      <c r="B33" t="s" s="10">
+      <c r="B33" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" t="s" s="12">
+      <c r="D33" s="15"/>
+      <c r="E33" t="s" s="14">
         <v>119</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="32.05" customHeight="1">
-      <c r="A34" t="s" s="9">
+      <c r="A34" t="s" s="11">
         <v>120</v>
       </c>
-      <c r="B34" t="s" s="10">
+      <c r="B34" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" t="s" s="12">
+      <c r="D34" s="15"/>
+      <c r="E34" t="s" s="14">
         <v>121</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" t="s" s="9">
+      <c r="A35" t="s" s="11">
         <v>122</v>
       </c>
-      <c r="B35" t="s" s="10">
+      <c r="B35" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="14">
         <v>124</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="14">
         <v>118</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" ht="32.05" customHeight="1">
-      <c r="A36" t="s" s="9">
+      <c r="A36" t="s" s="11">
         <v>125</v>
       </c>
-      <c r="B36" t="s" s="10">
+      <c r="B36" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="14">
         <v>127</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="14">
         <v>128</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="14">
         <v>129</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" ht="32.05" customHeight="1">
-      <c r="A37" t="s" s="9">
+      <c r="A37" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="B37" t="s" s="10">
+      <c r="B37" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="14">
         <v>127</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="14">
         <v>132</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="14">
         <v>133</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" ht="32.05" customHeight="1">
-      <c r="A38" t="s" s="9">
+      <c r="A38" t="s" s="11">
         <v>134</v>
       </c>
-      <c r="B38" t="s" s="10">
+      <c r="B38" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="14">
         <v>127</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" t="s" s="12">
+      <c r="D38" s="15"/>
+      <c r="E38" t="s" s="14">
         <v>135</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" ht="32.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+      <c r="A39" t="s" s="11">
         <v>136</v>
       </c>
-      <c r="B39" t="s" s="10">
+      <c r="B39" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="C39" t="s" s="12">
+      <c r="C39" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" t="s" s="14">
         <v>139</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" t="s" s="14">
         <v>137</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" ht="44.05" customHeight="1">
-      <c r="A40" t="s" s="9">
+      <c r="A40" t="s" s="11">
         <v>140</v>
       </c>
-      <c r="B40" t="s" s="10">
+      <c r="B40" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" t="s" s="12">
+      <c r="D40" s="15"/>
+      <c r="E40" t="s" s="14">
         <v>141</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" ht="32.05" customHeight="1">
-      <c r="A41" t="s" s="9">
+      <c r="A41" t="s" s="11">
         <v>142</v>
       </c>
-      <c r="B41" t="s" s="10">
+      <c r="B41" t="s" s="12">
         <v>143</v>
       </c>
-      <c r="C41" t="s" s="12">
+      <c r="C41" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D41" t="s" s="12">
+      <c r="D41" t="s" s="14">
         <v>144</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="14">
         <v>145</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" ht="44.05" customHeight="1">
-      <c r="A42" t="s" s="9">
+      <c r="A42" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="B42" t="s" s="10">
+      <c r="B42" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="14">
         <v>148</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="14">
         <v>149</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" ht="32.05" customHeight="1">
-      <c r="A43" t="s" s="9">
+      <c r="A43" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="B43" t="s" s="10">
+      <c r="B43" t="s" s="12">
         <v>151</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="14">
         <v>152</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" t="s" s="12">
+      <c r="D43" s="15"/>
+      <c r="E43" t="s" s="14">
         <v>153</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" ht="44.05" customHeight="1">
-      <c r="A44" t="s" s="9">
+      <c r="A44" t="s" s="11">
         <v>154</v>
       </c>
-      <c r="B44" t="s" s="10">
+      <c r="B44" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="14">
         <v>152</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" t="s" s="12">
+      <c r="D44" s="15"/>
+      <c r="E44" t="s" s="14">
         <v>155</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="9">
+      <c r="A45" t="s" s="11">
         <v>156</v>
       </c>
-      <c r="B45" t="s" s="10">
+      <c r="B45" t="s" s="12">
         <v>157</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="14">
         <v>152</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="14">
         <v>158</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="14">
         <v>159</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" ht="44.05" customHeight="1">
-      <c r="A46" t="s" s="9">
+      <c r="A46" t="s" s="11">
         <v>160</v>
       </c>
-      <c r="B46" t="s" s="10">
+      <c r="B46" t="s" s="12">
         <v>161</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="14">
         <v>152</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" t="s" s="12">
+      <c r="D46" s="15"/>
+      <c r="E46" t="s" s="14">
         <v>161</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="9">
+      <c r="A47" t="s" s="11">
         <v>162</v>
       </c>
-      <c r="B47" t="s" s="10">
+      <c r="B47" t="s" s="12">
         <v>163</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" t="s" s="12">
+      <c r="D47" s="15"/>
+      <c r="E47" t="s" s="14">
         <v>165</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" ht="32.05" customHeight="1">
-      <c r="A48" t="s" s="9">
+      <c r="A48" t="s" s="11">
         <v>166</v>
       </c>
-      <c r="B48" t="s" s="10">
+      <c r="B48" t="s" s="12">
         <v>167</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" t="s" s="12">
+      <c r="D48" s="15"/>
+      <c r="E48" t="s" s="14">
         <v>168</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" ht="32.05" customHeight="1">
-      <c r="A49" t="s" s="9">
+      <c r="A49" t="s" s="11">
         <v>169</v>
       </c>
-      <c r="B49" t="s" s="10">
+      <c r="B49" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="14">
         <v>171</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="14">
         <v>172</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" ht="32.05" customHeight="1">
-      <c r="A50" t="s" s="9">
+      <c r="A50" t="s" s="11">
         <v>173</v>
       </c>
-      <c r="B50" t="s" s="10">
+      <c r="B50" t="s" s="12">
         <v>174</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" t="s" s="12">
+      <c r="D50" s="15"/>
+      <c r="E50" t="s" s="14">
         <v>176</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" t="s" s="9">
+      <c r="A51" t="s" s="11">
         <v>177</v>
       </c>
-      <c r="B51" t="s" s="10">
+      <c r="B51" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" t="s" s="12">
+      <c r="D51" s="15"/>
+      <c r="E51" t="s" s="14">
         <v>179</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="9">
+      <c r="A52" t="s" s="11">
         <v>180</v>
       </c>
-      <c r="B52" t="s" s="10">
+      <c r="B52" t="s" s="12">
         <v>181</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="14">
         <v>182</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="14">
         <v>183</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" ht="32.05" customHeight="1">
-      <c r="A53" t="s" s="9">
+      <c r="A53" t="s" s="11">
         <v>184</v>
       </c>
-      <c r="B53" t="s" s="10">
+      <c r="B53" t="s" s="12">
         <v>185</v>
       </c>
-      <c r="C53" t="s" s="12">
+      <c r="C53" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="D53" t="s" s="12">
+      <c r="D53" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="14">
         <v>187</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" ht="32.05" customHeight="1">
-      <c r="A54" t="s" s="9">
+      <c r="A54" t="s" s="11">
         <v>188</v>
       </c>
-      <c r="B54" t="s" s="10">
+      <c r="B54" t="s" s="12">
         <v>189</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="14">
         <v>175</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" t="s" s="12">
+      <c r="D54" s="15"/>
+      <c r="E54" t="s" s="14">
         <v>190</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="9">
+      <c r="A55" t="s" s="11">
         <v>191</v>
       </c>
-      <c r="B55" t="s" s="10">
+      <c r="B55" t="s" s="12">
         <v>192</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="14">
         <v>193</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="14">
         <v>194</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="14">
         <v>195</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" ht="32.05" customHeight="1">
-      <c r="A56" t="s" s="9">
+      <c r="A56" t="s" s="11">
         <v>196</v>
       </c>
-      <c r="B56" t="s" s="10">
+      <c r="B56" t="s" s="12">
         <v>197</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="14">
         <v>193</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" t="s" s="12">
+      <c r="D56" s="15"/>
+      <c r="E56" t="s" s="14">
         <v>197</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" ht="44.05" customHeight="1">
-      <c r="A57" t="s" s="9">
+      <c r="A57" t="s" s="11">
         <v>198</v>
       </c>
-      <c r="B57" t="s" s="10">
+      <c r="B57" t="s" s="12">
         <v>199</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" t="s" s="12">
+      <c r="D57" s="15"/>
+      <c r="E57" t="s" s="14">
         <v>199</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" ht="32.05" customHeight="1">
-      <c r="A58" t="s" s="9">
+      <c r="A58" t="s" s="11">
         <v>201</v>
       </c>
-      <c r="B58" t="s" s="10">
+      <c r="B58" t="s" s="12">
         <v>185</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" t="s" s="12">
+      <c r="D58" s="15"/>
+      <c r="E58" t="s" s="14">
         <v>202</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" ht="32.05" customHeight="1">
-      <c r="A59" t="s" s="9">
+      <c r="A59" t="s" s="11">
         <v>203</v>
       </c>
-      <c r="B59" t="s" s="10">
+      <c r="B59" t="s" s="12">
         <v>204</v>
       </c>
-      <c r="C59" t="s" s="12">
+      <c r="C59" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" t="s" s="12">
+      <c r="D59" s="15"/>
+      <c r="E59" t="s" s="14">
         <v>205</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" ht="32.05" customHeight="1">
-      <c r="A60" t="s" s="9">
+      <c r="A60" t="s" s="11">
         <v>206</v>
       </c>
-      <c r="B60" t="s" s="10">
+      <c r="B60" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="14">
         <v>208</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="14">
         <v>209</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" ht="32.05" customHeight="1">
-      <c r="A61" t="s" s="9">
+      <c r="A61" t="s" s="11">
         <v>210</v>
       </c>
-      <c r="B61" t="s" s="10">
+      <c r="B61" t="s" s="12">
         <v>211</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="14">
         <v>212</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="14">
         <v>213</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" ht="32.05" customHeight="1">
-      <c r="A62" t="s" s="9">
+      <c r="A62" t="s" s="11">
         <v>214</v>
       </c>
-      <c r="B62" t="s" s="10">
+      <c r="B62" t="s" s="12">
         <v>215</v>
       </c>
-      <c r="C62" t="s" s="12">
+      <c r="C62" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D62" t="s" s="12">
+      <c r="D62" t="s" s="14">
         <v>216</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="14">
         <v>217</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" ht="32.05" customHeight="1">
-      <c r="A63" t="s" s="9">
+      <c r="A63" t="s" s="11">
         <v>218</v>
       </c>
-      <c r="B63" t="s" s="10">
+      <c r="B63" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="14">
         <v>219</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="14">
         <v>90</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" ht="32.05" customHeight="1">
-      <c r="A64" t="s" s="9">
+      <c r="A64" t="s" s="11">
         <v>220</v>
       </c>
-      <c r="B64" t="s" s="10">
+      <c r="B64" t="s" s="12">
         <v>221</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="14">
         <v>222</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="14">
         <v>221</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" ht="32.05" customHeight="1">
-      <c r="A65" t="s" s="9">
+      <c r="A65" t="s" s="11">
         <v>223</v>
       </c>
-      <c r="B65" t="s" s="10">
+      <c r="B65" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="C65" t="s" s="12">
+      <c r="C65" t="s" s="14">
         <v>224</v>
       </c>
-      <c r="D65" t="s" s="12">
+      <c r="D65" t="s" s="14">
         <v>225</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="14">
         <v>226</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" ht="32.05" customHeight="1">
-      <c r="A66" t="s" s="9">
+      <c r="A66" t="s" s="11">
         <v>227</v>
       </c>
-      <c r="B66" t="s" s="10">
+      <c r="B66" t="s" s="12">
         <v>228</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="14">
         <v>224</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" t="s" s="12">
+      <c r="D66" s="15"/>
+      <c r="E66" t="s" s="14">
         <v>228</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" ht="32.05" customHeight="1">
-      <c r="A67" t="s" s="9">
+      <c r="A67" t="s" s="11">
         <v>229</v>
       </c>
-      <c r="B67" t="s" s="10">
+      <c r="B67" t="s" s="12">
         <v>230</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="14">
         <v>224</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="14">
         <v>231</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="14">
         <v>232</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" ht="32.05" customHeight="1">
-      <c r="A68" t="s" s="9">
+      <c r="A68" t="s" s="11">
         <v>233</v>
       </c>
-      <c r="B68" t="s" s="10">
+      <c r="B68" t="s" s="12">
         <v>234</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="14">
         <v>236</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="14">
         <v>237</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="9">
+      <c r="A69" t="s" s="11">
         <v>238</v>
       </c>
-      <c r="B69" t="s" s="10">
+      <c r="B69" t="s" s="12">
         <v>239</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="14">
         <v>240</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="14">
         <v>241</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" ht="32.05" customHeight="1">
-      <c r="A70" t="s" s="9">
+      <c r="A70" t="s" s="11">
         <v>242</v>
       </c>
-      <c r="B70" t="s" s="10">
+      <c r="B70" t="s" s="12">
         <v>243</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="14">
         <v>244</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="14">
         <v>245</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" ht="44.05" customHeight="1">
-      <c r="A71" t="s" s="9">
+      <c r="A71" t="s" s="11">
         <v>246</v>
       </c>
-      <c r="B71" t="s" s="10">
+      <c r="B71" t="s" s="12">
         <v>247</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="14">
         <v>248</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="14">
         <v>249</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" ht="32.05" customHeight="1">
-      <c r="A72" t="s" s="9">
+      <c r="A72" t="s" s="11">
         <v>250</v>
       </c>
-      <c r="B72" t="s" s="10">
+      <c r="B72" t="s" s="12">
         <v>251</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="14">
         <v>253</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="14">
         <v>251</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" ht="32.05" customHeight="1">
-      <c r="A73" t="s" s="9">
+      <c r="A73" t="s" s="11">
         <v>254</v>
       </c>
-      <c r="B73" t="s" s="10">
+      <c r="B73" t="s" s="12">
         <v>255</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="14">
         <v>256</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="14">
         <v>257</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" ht="32.05" customHeight="1">
-      <c r="A74" t="s" s="9">
+      <c r="A74" t="s" s="11">
         <v>258</v>
       </c>
-      <c r="B74" t="s" s="10">
+      <c r="B74" t="s" s="12">
         <v>255</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="14">
         <v>259</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="14">
         <v>260</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" ht="32.05" customHeight="1">
-      <c r="A75" t="s" s="9">
+      <c r="A75" t="s" s="11">
         <v>261</v>
       </c>
-      <c r="B75" t="s" s="10">
+      <c r="B75" t="s" s="12">
         <v>262</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" t="s" s="12">
+      <c r="D75" s="15"/>
+      <c r="E75" t="s" s="14">
         <v>262</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" ht="32.05" customHeight="1">
-      <c r="A76" t="s" s="9">
+      <c r="A76" t="s" s="11">
         <v>263</v>
       </c>
-      <c r="B76" t="s" s="10">
+      <c r="B76" t="s" s="12">
         <v>264</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" t="s" s="12">
+      <c r="D76" s="15"/>
+      <c r="E76" t="s" s="14">
         <v>265</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" ht="44.05" customHeight="1">
-      <c r="A77" t="s" s="9">
+      <c r="A77" t="s" s="11">
         <v>266</v>
       </c>
-      <c r="B77" t="s" s="10">
+      <c r="B77" t="s" s="12">
         <v>267</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" t="s" s="12">
+      <c r="D77" s="15"/>
+      <c r="E77" t="s" s="14">
         <v>267</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" ht="32.05" customHeight="1">
-      <c r="A78" t="s" s="9">
+      <c r="A78" t="s" s="11">
         <v>268</v>
       </c>
-      <c r="B78" t="s" s="10">
+      <c r="B78" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" t="s" s="12">
+      <c r="D78" s="15"/>
+      <c r="E78" t="s" s="14">
         <v>270</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" ht="32.05" customHeight="1">
-      <c r="A79" t="s" s="9">
+      <c r="A79" t="s" s="11">
         <v>271</v>
       </c>
-      <c r="B79" t="s" s="10">
+      <c r="B79" t="s" s="12">
         <v>272</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="14">
         <v>273</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="14">
         <v>274</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" ht="32.05" customHeight="1">
-      <c r="A80" t="s" s="9">
+      <c r="A80" t="s" s="11">
         <v>275</v>
       </c>
-      <c r="B80" t="s" s="10">
+      <c r="B80" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C80" t="s" s="12">
+      <c r="C80" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="D80" t="s" s="14">
         <v>277</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="14">
         <v>278</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" ht="32.05" customHeight="1">
-      <c r="A81" t="s" s="9">
+      <c r="A81" t="s" s="11">
         <v>279</v>
       </c>
-      <c r="B81" t="s" s="10">
+      <c r="B81" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="14">
         <v>281</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="14">
         <v>282</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" ht="32.05" customHeight="1">
-      <c r="A82" t="s" s="9">
+      <c r="A82" t="s" s="11">
         <v>283</v>
       </c>
-      <c r="B82" t="s" s="10">
+      <c r="B82" t="s" s="12">
         <v>284</v>
       </c>
-      <c r="C82" t="s" s="12">
+      <c r="C82" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D82" t="s" s="12">
+      <c r="D82" t="s" s="14">
         <v>285</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="14">
         <v>286</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" ht="32.05" customHeight="1">
-      <c r="A83" t="s" s="9">
+      <c r="A83" t="s" s="11">
         <v>287</v>
       </c>
-      <c r="B83" t="s" s="10">
+      <c r="B83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="14">
         <v>288</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="14">
         <v>289</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="14">
         <v>290</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" ht="44.05" customHeight="1">
-      <c r="A84" t="s" s="9">
+      <c r="A84" t="s" s="11">
         <v>291</v>
       </c>
-      <c r="B84" t="s" s="10">
+      <c r="B84" t="s" s="12">
         <v>292</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="14">
         <v>288</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" t="s" s="12">
+      <c r="D84" s="15"/>
+      <c r="E84" t="s" s="14">
         <v>293</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="9">
+      <c r="A85" t="s" s="11">
         <v>294</v>
       </c>
-      <c r="B85" t="s" s="10">
+      <c r="B85" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="14">
         <v>295</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="14">
         <v>296</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="14">
         <v>178</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" ht="32.05" customHeight="1">
-      <c r="A86" t="s" s="9">
+      <c r="A86" t="s" s="11">
         <v>297</v>
       </c>
-      <c r="B86" t="s" s="10">
+      <c r="B86" t="s" s="12">
         <v>298</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="14">
         <v>299</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="14">
         <v>300</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="14">
         <v>301</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" ht="32.05" customHeight="1">
-      <c r="A87" t="s" s="9">
+      <c r="A87" t="s" s="11">
         <v>302</v>
       </c>
-      <c r="B87" t="s" s="10">
+      <c r="B87" t="s" s="12">
         <v>303</v>
       </c>
-      <c r="C87" t="s" s="12">
+      <c r="C87" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D87" t="s" s="12">
+      <c r="D87" t="s" s="14">
         <v>305</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="14">
         <v>303</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" ht="32.05" customHeight="1">
-      <c r="A88" t="s" s="9">
+      <c r="A88" t="s" s="11">
         <v>306</v>
       </c>
-      <c r="B88" t="s" s="10">
+      <c r="B88" t="s" s="12">
         <v>307</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="14">
         <v>308</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="14">
         <v>307</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" ht="32.05" customHeight="1">
-      <c r="A89" t="s" s="9">
+      <c r="A89" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="B89" t="s" s="10">
+      <c r="B89" t="s" s="12">
         <v>310</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="14">
         <v>311</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="14">
         <v>312</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" ht="32.05" customHeight="1">
-      <c r="A90" t="s" s="9">
+      <c r="A90" t="s" s="11">
         <v>313</v>
       </c>
-      <c r="B90" t="s" s="10">
+      <c r="B90" t="s" s="12">
         <v>314</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" t="s" s="12">
+      <c r="D90" s="15"/>
+      <c r="E90" t="s" s="14">
         <v>315</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" ht="32.05" customHeight="1">
-      <c r="A91" t="s" s="9">
+      <c r="A91" t="s" s="11">
         <v>316</v>
       </c>
-      <c r="B91" t="s" s="10">
+      <c r="B91" t="s" s="12">
         <v>317</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="14">
         <v>318</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="14">
         <v>319</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" ht="32.05" customHeight="1">
-      <c r="A92" t="s" s="9">
+      <c r="A92" t="s" s="11">
         <v>320</v>
       </c>
-      <c r="B92" t="s" s="10">
+      <c r="B92" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="E92" t="s" s="12">
+      <c r="D92" s="15"/>
+      <c r="E92" t="s" s="14">
         <v>321</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" ht="32.05" customHeight="1">
-      <c r="A93" t="s" s="9">
+      <c r="A93" t="s" s="11">
         <v>322</v>
       </c>
-      <c r="B93" t="s" s="10">
+      <c r="B93" t="s" s="12">
         <v>323</v>
       </c>
-      <c r="C93" t="s" s="12">
+      <c r="C93" t="s" s="14">
         <v>324</v>
       </c>
-      <c r="D93" t="s" s="12">
+      <c r="D93" t="s" s="14">
         <v>325</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="14">
         <v>323</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" ht="32.05" customHeight="1">
-      <c r="A94" t="s" s="9">
+      <c r="A94" t="s" s="11">
         <v>326</v>
       </c>
-      <c r="B94" t="s" s="10">
+      <c r="B94" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C94" t="s" s="12">
+      <c r="C94" t="s" s="14">
         <v>327</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" t="s" s="12">
+      <c r="D94" s="15"/>
+      <c r="E94" t="s" s="14">
         <v>328</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" ht="32.05" customHeight="1">
-      <c r="A95" t="s" s="9">
+      <c r="A95" t="s" s="11">
         <v>329</v>
       </c>
-      <c r="B95" t="s" s="10">
+      <c r="B95" t="s" s="12">
         <v>330</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="14">
         <v>327</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="14">
         <v>331</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="14">
         <v>332</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" ht="44.05" customHeight="1">
-      <c r="A96" t="s" s="9">
+      <c r="A96" t="s" s="11">
         <v>333</v>
       </c>
-      <c r="B96" t="s" s="10">
+      <c r="B96" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="14">
         <v>327</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="14">
         <v>334</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="14">
         <v>335</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" ht="32.05" customHeight="1">
-      <c r="A97" t="s" s="9">
+      <c r="A97" t="s" s="11">
         <v>336</v>
       </c>
-      <c r="B97" t="s" s="10">
+      <c r="B97" t="s" s="12">
         <v>337</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="14">
         <v>338</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="14">
         <v>339</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="14">
         <v>337</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" ht="32.05" customHeight="1">
-      <c r="A98" t="s" s="9">
+      <c r="A98" t="s" s="11">
         <v>340</v>
       </c>
-      <c r="B98" t="s" s="10">
+      <c r="B98" t="s" s="12">
         <v>341</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="14">
         <v>338</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" t="s" s="12">
+      <c r="D98" s="15"/>
+      <c r="E98" t="s" s="14">
         <v>341</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" ht="32.05" customHeight="1">
-      <c r="A99" t="s" s="9">
+      <c r="A99" t="s" s="11">
         <v>342</v>
       </c>
-      <c r="B99" t="s" s="10">
+      <c r="B99" t="s" s="12">
         <v>343</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="14">
         <v>338</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="14">
         <v>344</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="14">
         <v>343</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="A100" t="s" s="11">
         <v>345</v>
       </c>
-      <c r="B100" t="s" s="10">
+      <c r="B100" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="14">
         <v>348</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" ht="32.05" customHeight="1">
-      <c r="A101" t="s" s="9">
+      <c r="A101" t="s" s="11">
         <v>349</v>
       </c>
-      <c r="B101" t="s" s="10">
+      <c r="B101" t="s" s="12">
         <v>350</v>
       </c>
-      <c r="C101" t="s" s="12">
+      <c r="C101" t="s" s="14">
         <v>351</v>
       </c>
-      <c r="D101" t="s" s="12">
+      <c r="D101" t="s" s="14">
         <v>352</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="14">
         <v>353</v>
       </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="9">
+      <c r="A102" t="s" s="11">
         <v>354</v>
       </c>
-      <c r="B102" t="s" s="10">
+      <c r="B102" t="s" s="12">
         <v>355</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="14">
         <v>356</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="14">
         <v>357</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="14">
         <v>355</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" ht="32.05" customHeight="1">
-      <c r="A103" t="s" s="9">
+      <c r="A103" t="s" s="11">
         <v>358</v>
       </c>
-      <c r="B103" t="s" s="10">
+      <c r="B103" t="s" s="12">
         <v>359</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="14">
         <v>360</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="14">
         <v>361</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="14">
         <v>359</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" ht="32.05" customHeight="1">
-      <c r="A104" t="s" s="9">
+      <c r="A104" t="s" s="11">
         <v>362</v>
       </c>
-      <c r="B104" t="s" s="10">
+      <c r="B104" t="s" s="12">
         <v>363</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="14">
         <v>364</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="14">
         <v>365</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="14">
         <v>363</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" ht="32.05" customHeight="1">
-      <c r="A105" t="s" s="9">
+      <c r="A105" t="s" s="11">
         <v>366</v>
       </c>
-      <c r="B105" t="s" s="10">
+      <c r="B105" t="s" s="12">
         <v>367</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="14">
         <v>368</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="14">
         <v>367</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="14">
         <v>369</v>
       </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" ht="32.05" customHeight="1">
-      <c r="A106" t="s" s="9">
+      <c r="A106" t="s" s="11">
         <v>370</v>
       </c>
-      <c r="B106" t="s" s="10">
+      <c r="B106" t="s" s="12">
         <v>371</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="14">
         <v>372</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="D106" t="s" s="14">
         <v>373</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="14">
         <v>374</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" ht="32.05" customHeight="1">
-      <c r="A107" t="s" s="9">
+      <c r="A107" t="s" s="11">
         <v>375</v>
       </c>
-      <c r="B107" t="s" s="10">
+      <c r="B107" t="s" s="12">
         <v>376</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="14">
         <v>368</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="14">
         <v>377</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="14">
         <v>376</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" ht="32.05" customHeight="1">
-      <c r="A108" t="s" s="9">
+      <c r="A108" t="s" s="11">
         <v>378</v>
       </c>
-      <c r="B108" t="s" s="10">
+      <c r="B108" t="s" s="12">
         <v>379</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="14">
         <v>380</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="14">
         <v>381</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="14">
         <v>382</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" ht="32.05" customHeight="1">
-      <c r="A109" t="s" s="9">
+      <c r="A109" t="s" s="11">
         <v>383</v>
       </c>
-      <c r="B109" t="s" s="10">
+      <c r="B109" t="s" s="12">
         <v>384</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="14">
         <v>380</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="14">
         <v>385</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="14">
         <v>384</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" ht="32.05" customHeight="1">
-      <c r="A110" t="s" s="9">
+      <c r="A110" t="s" s="11">
         <v>386</v>
       </c>
-      <c r="B110" t="s" s="10">
+      <c r="B110" t="s" s="12">
         <v>337</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="14">
         <v>380</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="14">
         <v>387</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="14">
         <v>388</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" ht="32.05" customHeight="1">
-      <c r="A111" t="s" s="9">
+      <c r="A111" t="s" s="11">
         <v>389</v>
       </c>
-      <c r="B111" t="s" s="10">
+      <c r="B111" t="s" s="12">
         <v>390</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="14">
         <v>391</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="14">
         <v>392</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="14">
         <v>390</v>
       </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" ht="32.05" customHeight="1">
-      <c r="A112" t="s" s="9">
+      <c r="A112" t="s" s="11">
         <v>393</v>
       </c>
-      <c r="B112" t="s" s="10">
+      <c r="B112" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="14">
         <v>391</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="14">
         <v>395</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="14">
         <v>396</v>
       </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" ht="32.05" customHeight="1">
-      <c r="A113" t="s" s="9">
+      <c r="A113" t="s" s="11">
         <v>397</v>
       </c>
-      <c r="B113" t="s" s="10">
+      <c r="B113" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="14">
         <v>399</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="14">
         <v>400</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="14">
         <v>398</v>
       </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" ht="32.05" customHeight="1">
-      <c r="A114" t="s" s="9">
+      <c r="A114" t="s" s="11">
         <v>401</v>
       </c>
-      <c r="B114" t="s" s="10">
+      <c r="B114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C114" t="s" s="12">
+      <c r="C114" t="s" s="14">
         <v>402</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="D114" t="s" s="14">
         <v>403</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="14">
         <v>404</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" ht="32.05" customHeight="1">
-      <c r="A115" t="s" s="9">
+      <c r="A115" t="s" s="11">
         <v>405</v>
       </c>
-      <c r="B115" t="s" s="10">
+      <c r="B115" t="s" s="12">
         <v>406</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="14">
         <v>407</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="14">
         <v>408</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="14">
         <v>406</v>
       </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" ht="32.05" customHeight="1">
-      <c r="A116" t="s" s="9">
+      <c r="A116" t="s" s="11">
         <v>409</v>
       </c>
-      <c r="B116" t="s" s="10">
+      <c r="B116" t="s" s="12">
         <v>410</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="14">
         <v>411</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="14">
         <v>412</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="14">
         <v>410</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" ht="32.05" customHeight="1">
-      <c r="A117" t="s" s="9">
+      <c r="A117" t="s" s="11">
         <v>413</v>
       </c>
-      <c r="B117" t="s" s="10">
+      <c r="B117" t="s" s="12">
         <v>414</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="14">
         <v>411</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="14">
         <v>415</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="14">
         <v>414</v>
       </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" ht="32.05" customHeight="1">
-      <c r="A118" t="s" s="9">
+      <c r="A118" t="s" s="11">
         <v>416</v>
       </c>
-      <c r="B118" t="s" s="10">
+      <c r="B118" t="s" s="12">
         <v>417</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="14">
         <v>418</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="14">
         <v>419</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="14">
         <v>417</v>
       </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" ht="32.05" customHeight="1">
-      <c r="A119" t="s" s="9">
+      <c r="A119" t="s" s="11">
         <v>420</v>
       </c>
-      <c r="B119" t="s" s="10">
+      <c r="B119" t="s" s="12">
         <v>421</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="14">
         <v>422</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="14">
         <v>423</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="14">
         <v>421</v>
       </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120" ht="32.05" customHeight="1">
-      <c r="A120" t="s" s="9">
+      <c r="A120" t="s" s="11">
         <v>424</v>
       </c>
-      <c r="B120" t="s" s="10">
+      <c r="B120" t="s" s="12">
         <v>425</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="14">
         <v>426</v>
       </c>
-      <c r="D120" s="13"/>
-      <c r="E120" t="s" s="12">
+      <c r="D120" s="15"/>
+      <c r="E120" t="s" s="14">
         <v>425</v>
       </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" ht="32.05" customHeight="1">
-      <c r="A121" t="s" s="9">
+      <c r="A121" t="s" s="11">
         <v>427</v>
       </c>
-      <c r="B121" t="s" s="10">
+      <c r="B121" t="s" s="12">
         <v>428</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="14">
         <v>429</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="14">
         <v>430</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="14">
         <v>431</v>
       </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" t="s" s="9">
+      <c r="A122" t="s" s="11">
         <v>432</v>
       </c>
-      <c r="B122" t="s" s="10">
+      <c r="B122" t="s" s="12">
         <v>433</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="14">
         <v>434</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" t="s" s="12">
+      <c r="D122" s="15"/>
+      <c r="E122" t="s" s="14">
         <v>435</v>
       </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" ht="32.05" customHeight="1">
-      <c r="A123" t="s" s="9">
+      <c r="A123" t="s" s="11">
         <v>436</v>
       </c>
-      <c r="B123" t="s" s="10">
+      <c r="B123" t="s" s="12">
         <v>437</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="14">
         <v>438</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="14">
         <v>439</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="14">
         <v>440</v>
       </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" ht="32.05" customHeight="1">
-      <c r="A124" t="s" s="9">
+      <c r="A124" t="s" s="11">
         <v>441</v>
       </c>
-      <c r="B124" t="s" s="10">
+      <c r="B124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="14">
         <v>442</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="14">
         <v>443</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="14">
         <v>444</v>
       </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" ht="32.05" customHeight="1">
-      <c r="A125" t="s" s="9">
+      <c r="A125" t="s" s="11">
         <v>445</v>
       </c>
-      <c r="B125" t="s" s="10">
+      <c r="B125" t="s" s="12">
         <v>446</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="14">
         <v>447</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="14">
         <v>448</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="14">
         <v>446</v>
       </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" ht="32.05" customHeight="1">
-      <c r="A126" t="s" s="9">
+      <c r="A126" t="s" s="11">
         <v>449</v>
       </c>
-      <c r="B126" t="s" s="10">
+      <c r="B126" t="s" s="12">
         <v>450</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="14">
         <v>451</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="14">
         <v>452</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="14">
         <v>450</v>
       </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" ht="32.05" customHeight="1">
-      <c r="A127" t="s" s="9">
+      <c r="A127" t="s" s="11">
         <v>453</v>
       </c>
-      <c r="B127" t="s" s="10">
+      <c r="B127" t="s" s="12">
         <v>428</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="14">
         <v>454</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="14">
         <v>430</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="14">
         <v>455</v>
       </c>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" ht="32.05" customHeight="1">
-      <c r="A128" t="s" s="9">
+      <c r="A128" t="s" s="11">
         <v>456</v>
       </c>
-      <c r="B128" t="s" s="10">
+      <c r="B128" t="s" s="12">
         <v>457</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="14">
         <v>458</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" t="s" s="12">
+      <c r="D128" s="15"/>
+      <c r="E128" t="s" s="14">
         <v>457</v>
       </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" ht="32.05" customHeight="1">
-      <c r="A129" t="s" s="9">
+      <c r="A129" t="s" s="11">
         <v>459</v>
       </c>
-      <c r="B129" t="s" s="10">
+      <c r="B129" t="s" s="12">
         <v>460</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="14">
         <v>461</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="14">
         <v>462</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="14">
         <v>460</v>
       </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" ht="32.05" customHeight="1">
-      <c r="A130" t="s" s="9">
+      <c r="A130" t="s" s="11">
         <v>463</v>
       </c>
-      <c r="B130" t="s" s="10">
+      <c r="B130" t="s" s="12">
         <v>460</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="14">
         <v>461</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" t="s" s="12">
+      <c r="D130" s="15"/>
+      <c r="E130" t="s" s="14">
         <v>464</v>
       </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" ht="32.05" customHeight="1">
-      <c r="A131" t="s" s="9">
+      <c r="A131" t="s" s="11">
         <v>465</v>
       </c>
-      <c r="B131" t="s" s="10">
+      <c r="B131" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="14">
         <v>461</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" t="s" s="12">
+      <c r="D131" s="15"/>
+      <c r="E131" t="s" s="14">
         <v>467</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" ht="32.05" customHeight="1">
-      <c r="A132" t="s" s="9">
+      <c r="A132" t="s" s="11">
         <v>468</v>
       </c>
-      <c r="B132" t="s" s="10">
+      <c r="B132" t="s" s="12">
         <v>469</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="14">
         <v>470</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="14">
         <v>471</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="14">
         <v>469</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" ht="32.05" customHeight="1">
-      <c r="A133" t="s" s="9">
+      <c r="A133" t="s" s="11">
         <v>472</v>
       </c>
-      <c r="B133" t="s" s="10">
+      <c r="B133" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="C133" t="s" s="12">
+      <c r="C133" t="s" s="14">
         <v>473</v>
       </c>
-      <c r="D133" t="s" s="12">
+      <c r="D133" t="s" s="14">
         <v>474</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="14">
         <v>475</v>
       </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" ht="32.05" customHeight="1">
-      <c r="A134" t="s" s="9">
+      <c r="A134" t="s" s="11">
         <v>476</v>
       </c>
-      <c r="B134" t="s" s="10">
+      <c r="B134" t="s" s="12">
         <v>207</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="14">
         <v>477</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="14">
         <v>208</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="14">
         <v>207</v>
       </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="9">
+      <c r="A135" t="s" s="11">
         <v>478</v>
       </c>
-      <c r="B135" t="s" s="10">
+      <c r="B135" t="s" s="12">
         <v>479</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="14">
         <v>480</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="14">
         <v>481</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="14">
         <v>482</v>
       </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" ht="44.05" customHeight="1">
-      <c r="A136" t="s" s="9">
+      <c r="A136" t="s" s="11">
         <v>483</v>
       </c>
-      <c r="B136" t="s" s="10">
+      <c r="B136" t="s" s="12">
         <v>446</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="14">
         <v>484</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" t="s" s="12">
+      <c r="D136" s="15"/>
+      <c r="E136" t="s" s="14">
         <v>485</v>
       </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" ht="32.05" customHeight="1">
-      <c r="A137" t="s" s="9">
+      <c r="A137" t="s" s="11">
         <v>486</v>
       </c>
-      <c r="B137" t="s" s="10">
+      <c r="B137" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="14">
         <v>487</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="14">
         <v>488</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="14">
         <v>489</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138" ht="44.05" customHeight="1">
-      <c r="A138" t="s" s="9">
+      <c r="A138" t="s" s="11">
         <v>490</v>
       </c>
-      <c r="B138" t="s" s="10">
+      <c r="B138" t="s" s="12">
         <v>491</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="14">
         <v>492</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="14">
         <v>493</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="14">
         <v>494</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" ht="32.05" customHeight="1">
-      <c r="A139" t="s" s="9">
+      <c r="A139" t="s" s="11">
         <v>495</v>
       </c>
-      <c r="B139" t="s" s="10">
+      <c r="B139" t="s" s="12">
         <v>496</v>
       </c>
-      <c r="C139" t="s" s="12">
+      <c r="C139" t="s" s="14">
         <v>497</v>
       </c>
-      <c r="D139" t="s" s="12">
+      <c r="D139" t="s" s="14">
         <v>498</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="14">
         <v>499</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" ht="32.05" customHeight="1">
-      <c r="A140" t="s" s="9">
+      <c r="A140" t="s" s="11">
         <v>500</v>
       </c>
-      <c r="B140" t="s" s="10">
+      <c r="B140" t="s" s="12">
         <v>437</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="14">
         <v>501</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="14">
         <v>439</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="14">
         <v>502</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" ht="32.05" customHeight="1">
-      <c r="A141" t="s" s="9">
+      <c r="A141" t="s" s="11">
         <v>503</v>
       </c>
-      <c r="B141" t="s" s="10">
+      <c r="B141" t="s" s="12">
         <v>504</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="14">
         <v>501</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="14">
         <v>505</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="14">
         <v>506</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142" ht="32.05" customHeight="1">
-      <c r="A142" t="s" s="9">
+      <c r="A142" t="s" s="11">
         <v>507</v>
       </c>
-      <c r="B142" t="s" s="10">
+      <c r="B142" t="s" s="12">
         <v>508</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="14">
         <v>509</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="14">
         <v>510</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="14">
         <v>511</v>
       </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" ht="32.05" customHeight="1">
-      <c r="A143" t="s" s="9">
+      <c r="A143" t="s" s="11">
         <v>512</v>
       </c>
-      <c r="B143" t="s" s="10">
+      <c r="B143" t="s" s="12">
         <v>513</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="14">
         <v>514</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="14">
         <v>515</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="14">
         <v>516</v>
       </c>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
     </row>
     <row r="144" ht="32.05" customHeight="1">
-      <c r="A144" t="s" s="9">
+      <c r="A144" t="s" s="11">
         <v>517</v>
       </c>
-      <c r="B144" t="s" s="10">
+      <c r="B144" t="s" s="12">
         <v>379</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="14">
         <v>518</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="14">
         <v>381</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="14">
         <v>519</v>
       </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145" ht="44.05" customHeight="1">
-      <c r="A145" t="s" s="9">
+      <c r="A145" t="s" s="11">
         <v>520</v>
       </c>
-      <c r="B145" t="s" s="10">
+      <c r="B145" t="s" s="12">
         <v>521</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="14">
         <v>518</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" t="s" s="12">
+      <c r="D145" s="15"/>
+      <c r="E145" t="s" s="14">
         <v>522</v>
       </c>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
     </row>
     <row r="146" ht="32.05" customHeight="1">
-      <c r="A146" t="s" s="9">
+      <c r="A146" t="s" s="11">
         <v>523</v>
       </c>
-      <c r="B146" t="s" s="10">
+      <c r="B146" t="s" s="12">
         <v>524</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="14">
         <v>518</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="14">
         <v>525</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="14">
         <v>526</v>
       </c>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
     </row>
     <row r="147" ht="32.05" customHeight="1">
-      <c r="A147" t="s" s="9">
+      <c r="A147" t="s" s="11">
         <v>527</v>
       </c>
-      <c r="B147" t="s" s="10">
+      <c r="B147" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="14">
         <v>528</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" t="s" s="12">
+      <c r="D147" s="15"/>
+      <c r="E147" t="s" s="14">
         <v>529</v>
       </c>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
     </row>
     <row r="148" ht="32.05" customHeight="1">
-      <c r="A148" t="s" s="9">
+      <c r="A148" t="s" s="11">
         <v>530</v>
       </c>
-      <c r="B148" t="s" s="10">
+      <c r="B148" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="14">
         <v>531</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="14">
         <v>533</v>
       </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
     </row>
     <row r="149" ht="32.05" customHeight="1">
-      <c r="A149" t="s" s="9">
+      <c r="A149" t="s" s="11">
         <v>534</v>
       </c>
-      <c r="B149" t="s" s="10">
+      <c r="B149" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="14">
         <v>535</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
+      <c r="D149" s="15"/>
+      <c r="E149" t="s" s="16">
+        <v>534</v>
+      </c>
+      <c r="F149" s="17"/>
+      <c r="G149" s="15"/>
     </row>
     <row r="150" ht="32.05" customHeight="1">
-      <c r="A150" t="s" s="9">
+      <c r="A150" t="s" s="11">
         <v>536</v>
       </c>
-      <c r="B150" t="s" s="10">
+      <c r="B150" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="14">
         <v>537</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
+      <c r="E150" t="s" s="16">
+        <v>536</v>
+      </c>
+      <c r="F150" s="17"/>
+      <c r="G150" s="15"/>
     </row>
     <row r="151" ht="44.05" customHeight="1">
-      <c r="A151" t="s" s="9">
+      <c r="A151" t="s" s="11">
         <v>538</v>
       </c>
-      <c r="B151" t="s" s="10">
+      <c r="B151" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="14">
         <v>539</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
+      <c r="E151" t="s" s="16">
+        <v>538</v>
+      </c>
+      <c r="F151" s="17"/>
+      <c r="G151" s="15"/>
     </row>
     <row r="152" ht="32.05" customHeight="1">
-      <c r="A152" t="s" s="9">
+      <c r="A152" t="s" s="11">
         <v>540</v>
       </c>
-      <c r="B152" t="s" s="10">
+      <c r="B152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="14">
         <v>541</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
+      <c r="E152" t="s" s="16">
+        <v>540</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="15"/>
     </row>
     <row r="153" ht="32.05" customHeight="1">
-      <c r="A153" t="s" s="9">
+      <c r="A153" t="s" s="11">
         <v>542</v>
       </c>
-      <c r="B153" t="s" s="10">
+      <c r="B153" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="14">
         <v>543</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
+      <c r="E153" t="s" s="16">
+        <v>542</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="15"/>
     </row>
     <row r="154" ht="32.05" customHeight="1">
-      <c r="A154" t="s" s="9">
+      <c r="A154" t="s" s="11">
         <v>544</v>
       </c>
-      <c r="B154" t="s" s="10">
+      <c r="B154" t="s" s="12">
         <v>545</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="14">
         <v>543</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
+      <c r="E154" t="s" s="16">
+        <v>544</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="15"/>
     </row>
     <row r="155" ht="32.05" customHeight="1">
-      <c r="A155" t="s" s="9">
+      <c r="A155" t="s" s="11">
         <v>546</v>
       </c>
-      <c r="B155" t="s" s="10">
+      <c r="B155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="14">
         <v>543</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
+      <c r="E155" t="s" s="16">
+        <v>546</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="G155" s="15"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
-      <c r="A156" t="s" s="9">
+      <c r="A156" t="s" s="11">
         <v>547</v>
       </c>
-      <c r="B156" t="s" s="10">
+      <c r="B156" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="14">
         <v>548</v>
       </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
+      <c r="D156" s="15"/>
+      <c r="E156" t="s" s="16">
+        <v>547</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" ht="32.05" customHeight="1">
-      <c r="A157" t="s" s="9">
+      <c r="A157" t="s" s="11">
         <v>549</v>
       </c>
-      <c r="B157" t="s" s="10">
+      <c r="B157" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="14">
         <v>550</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
+      <c r="E157" t="s" s="16">
+        <v>549</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="15"/>
     </row>
     <row r="158" ht="32.05" customHeight="1">
-      <c r="A158" t="s" s="9">
+      <c r="A158" t="s" s="11">
         <v>551</v>
       </c>
-      <c r="B158" t="s" s="10">
+      <c r="B158" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="14">
         <v>550</v>
       </c>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
+      <c r="D158" s="15"/>
+      <c r="E158" t="s" s="16">
+        <v>551</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" ht="32.05" customHeight="1">
-      <c r="A159" t="s" s="9">
+      <c r="A159" t="s" s="11">
         <v>552</v>
       </c>
-      <c r="B159" t="s" s="10">
+      <c r="B159" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C159" t="s" s="12">
+      <c r="C159" t="s" s="14">
         <v>550</v>
       </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
+      <c r="D159" s="15"/>
+      <c r="E159" t="s" s="16">
+        <v>552</v>
+      </c>
+      <c r="F159" s="17"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" ht="32.05" customHeight="1">
-      <c r="A160" t="s" s="9">
+      <c r="A160" t="s" s="11">
         <v>413</v>
       </c>
-      <c r="B160" t="s" s="10">
+      <c r="B160" t="s" s="12">
         <v>414</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
+      <c r="D160" s="15"/>
+      <c r="E160" t="s" s="16">
+        <v>413</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
-      <c r="A161" t="s" s="9">
+      <c r="A161" t="s" s="11">
         <v>553</v>
       </c>
-      <c r="B161" t="s" s="10">
+      <c r="B161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
+      <c r="D161" s="15"/>
+      <c r="E161" t="s" s="16">
+        <v>553</v>
+      </c>
+      <c r="F161" s="17"/>
+      <c r="G161" s="15"/>
     </row>
     <row r="162" ht="32.05" customHeight="1">
-      <c r="A162" t="s" s="9">
+      <c r="A162" t="s" s="11">
         <v>554</v>
       </c>
-      <c r="B162" t="s" s="10">
+      <c r="B162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
+      <c r="E162" t="s" s="16">
+        <v>554</v>
+      </c>
+      <c r="F162" s="17"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" ht="32.05" customHeight="1">
-      <c r="A163" t="s" s="9">
+      <c r="A163" t="s" s="11">
         <v>555</v>
       </c>
-      <c r="B163" t="s" s="10">
+      <c r="B163" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="14">
         <v>556</v>
       </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
+      <c r="E163" t="s" s="16">
+        <v>555</v>
+      </c>
+      <c r="F163" s="17"/>
+      <c r="G163" s="15"/>
     </row>
     <row r="164" ht="32.05" customHeight="1">
-      <c r="A164" t="s" s="9">
+      <c r="A164" t="s" s="11">
         <v>557</v>
       </c>
-      <c r="B164" t="s" s="10">
+      <c r="B164" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="14">
         <v>558</v>
       </c>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
+      <c r="E164" t="s" s="16">
+        <v>557</v>
+      </c>
+      <c r="F164" s="17"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" ht="32.05" customHeight="1">
-      <c r="A165" t="s" s="9">
+      <c r="A165" t="s" s="11">
         <v>559</v>
       </c>
-      <c r="B165" t="s" s="10">
+      <c r="B165" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="14">
         <v>561</v>
       </c>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
+      <c r="E165" t="s" s="16">
+        <v>559</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="15"/>
     </row>
     <row r="166" ht="32.05" customHeight="1">
-      <c r="A166" t="s" s="9">
+      <c r="A166" t="s" s="11">
         <v>562</v>
       </c>
-      <c r="B166" t="s" s="10">
+      <c r="B166" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
+      <c r="E166" t="s" s="16">
+        <v>562</v>
+      </c>
+      <c r="F166" s="17"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" ht="32.05" customHeight="1">
-      <c r="A167" t="s" s="9">
+      <c r="A167" t="s" s="11">
         <v>563</v>
       </c>
-      <c r="B167" t="s" s="10">
+      <c r="B167" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="14">
         <v>564</v>
       </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
+      <c r="E167" t="s" s="16">
+        <v>563</v>
+      </c>
+      <c r="F167" s="17"/>
+      <c r="G167" s="15"/>
     </row>
     <row r="168" ht="32.05" customHeight="1">
-      <c r="A168" t="s" s="9">
+      <c r="A168" t="s" s="11">
         <v>565</v>
       </c>
-      <c r="B168" t="s" s="10">
+      <c r="B168" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="14">
         <v>566</v>
       </c>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
+      <c r="E168" t="s" s="16">
+        <v>565</v>
+      </c>
+      <c r="F168" s="17"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" ht="32.05" customHeight="1">
-      <c r="A169" t="s" s="9">
+      <c r="A169" t="s" s="11">
         <v>567</v>
       </c>
-      <c r="B169" t="s" s="10">
+      <c r="B169" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C169" t="s" s="12">
+      <c r="C169" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D169" t="s" s="12">
+      <c r="D169" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
+      <c r="E169" t="s" s="16">
+        <v>567</v>
+      </c>
+      <c r="F169" s="17"/>
+      <c r="G169" s="15"/>
     </row>
     <row r="170" ht="32.05" customHeight="1">
-      <c r="A170" t="s" s="9">
+      <c r="A170" t="s" s="11">
         <v>568</v>
       </c>
-      <c r="B170" t="s" s="10">
+      <c r="B170" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
+      <c r="E170" t="s" s="16">
+        <v>568</v>
+      </c>
+      <c r="F170" s="17"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
-      <c r="A171" t="s" s="9">
+      <c r="A171" t="s" s="11">
         <v>569</v>
       </c>
-      <c r="B171" t="s" s="10">
+      <c r="B171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C171" t="s" s="12">
+      <c r="C171" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D171" t="s" s="12">
+      <c r="D171" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
+      <c r="E171" t="s" s="16">
+        <v>569</v>
+      </c>
+      <c r="F171" s="17"/>
+      <c r="G171" s="15"/>
     </row>
     <row r="172" ht="44.05" customHeight="1">
-      <c r="A172" t="s" s="9">
+      <c r="A172" t="s" s="11">
         <v>570</v>
       </c>
-      <c r="B172" t="s" s="10">
+      <c r="B172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
+      <c r="E172" t="s" s="16">
+        <v>570</v>
+      </c>
+      <c r="F172" s="17"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" ht="32.05" customHeight="1">
-      <c r="A173" t="s" s="9">
+      <c r="A173" t="s" s="11">
         <v>571</v>
       </c>
-      <c r="B173" t="s" s="10">
+      <c r="B173" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
+      <c r="E173" t="s" s="16">
+        <v>571</v>
+      </c>
+      <c r="F173" s="17"/>
+      <c r="G173" s="15"/>
     </row>
     <row r="174" ht="32.05" customHeight="1">
-      <c r="A174" t="s" s="9">
+      <c r="A174" t="s" s="11">
         <v>572</v>
       </c>
-      <c r="B174" t="s" s="10">
+      <c r="B174" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
+      <c r="E174" t="s" s="16">
+        <v>572</v>
+      </c>
+      <c r="F174" s="17"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" ht="32.05" customHeight="1">
-      <c r="A175" t="s" s="9">
+      <c r="A175" t="s" s="11">
         <v>573</v>
       </c>
-      <c r="B175" t="s" s="10">
+      <c r="B175" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
+      <c r="E175" t="s" s="16">
+        <v>573</v>
+      </c>
+      <c r="F175" s="17"/>
+      <c r="G175" s="15"/>
     </row>
     <row r="176" ht="32.05" customHeight="1">
-      <c r="A176" t="s" s="9">
+      <c r="A176" t="s" s="11">
         <v>574</v>
       </c>
-      <c r="B176" t="s" s="10">
+      <c r="B176" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
+      <c r="E176" t="s" s="16">
+        <v>574</v>
+      </c>
+      <c r="F176" s="17"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" ht="32.05" customHeight="1">
-      <c r="A177" t="s" s="9">
+      <c r="A177" t="s" s="11">
         <v>575</v>
       </c>
-      <c r="B177" t="s" s="10">
+      <c r="B177" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
+      <c r="E177" t="s" s="16">
+        <v>575</v>
+      </c>
+      <c r="F177" s="17"/>
+      <c r="G177" s="15"/>
     </row>
     <row r="178" ht="32.05" customHeight="1">
-      <c r="A178" t="s" s="9">
+      <c r="A178" t="s" s="11">
         <v>576</v>
       </c>
-      <c r="B178" t="s" s="10">
+      <c r="B178" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
+      <c r="E178" t="s" s="16">
+        <v>576</v>
+      </c>
+      <c r="F178" s="17"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" ht="32.05" customHeight="1">
-      <c r="A179" t="s" s="9">
+      <c r="A179" t="s" s="11">
         <v>567</v>
       </c>
-      <c r="B179" t="s" s="10">
+      <c r="B179" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
+      <c r="E179" t="s" s="16">
+        <v>567</v>
+      </c>
+      <c r="F179" s="17"/>
+      <c r="G179" s="15"/>
     </row>
     <row r="180" ht="32.05" customHeight="1">
-      <c r="A180" t="s" s="9">
+      <c r="A180" t="s" s="11">
         <v>577</v>
       </c>
-      <c r="B180" t="s" s="10">
+      <c r="B180" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
+      <c r="E180" t="s" s="16">
+        <v>577</v>
+      </c>
+      <c r="F180" s="17"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" ht="32.05" customHeight="1">
-      <c r="A181" t="s" s="9">
+      <c r="A181" t="s" s="11">
         <v>578</v>
       </c>
-      <c r="B181" t="s" s="10">
+      <c r="B181" t="s" s="12">
         <v>579</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
+      <c r="E181" t="s" s="16">
+        <v>578</v>
+      </c>
+      <c r="F181" s="17"/>
+      <c r="G181" s="15"/>
     </row>
     <row r="182" ht="44.05" customHeight="1">
-      <c r="A182" t="s" s="9">
+      <c r="A182" t="s" s="11">
         <v>580</v>
       </c>
-      <c r="B182" t="s" s="10">
+      <c r="B182" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
+      <c r="E182" t="s" s="16">
+        <v>580</v>
+      </c>
+      <c r="F182" s="17"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" ht="32.05" customHeight="1">
-      <c r="A183" t="s" s="9">
+      <c r="A183" t="s" s="11">
         <v>581</v>
       </c>
-      <c r="B183" t="s" s="10">
+      <c r="B183" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
+      <c r="D183" s="15"/>
+      <c r="E183" t="s" s="16">
+        <v>581</v>
+      </c>
+      <c r="F183" s="17"/>
+      <c r="G183" s="15"/>
     </row>
     <row r="184" ht="32.05" customHeight="1">
-      <c r="A184" t="s" s="9">
+      <c r="A184" t="s" s="11">
         <v>582</v>
       </c>
-      <c r="B184" t="s" s="10">
+      <c r="B184" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
+      <c r="E184" t="s" s="16">
+        <v>582</v>
+      </c>
+      <c r="F184" s="17"/>
+      <c r="G184" s="15"/>
     </row>
     <row r="185" ht="32.05" customHeight="1">
-      <c r="A185" t="s" s="9">
+      <c r="A185" t="s" s="11">
         <v>583</v>
       </c>
-      <c r="B185" t="s" s="10">
+      <c r="B185" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
+      <c r="D185" s="15"/>
+      <c r="E185" t="s" s="16">
+        <v>583</v>
+      </c>
+      <c r="F185" s="17"/>
+      <c r="G185" s="15"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
-      <c r="A186" t="s" s="9">
+      <c r="A186" t="s" s="11">
         <v>584</v>
       </c>
-      <c r="B186" t="s" s="10">
+      <c r="B186" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
+      <c r="D186" s="15"/>
+      <c r="E186" t="s" s="16">
+        <v>584</v>
+      </c>
+      <c r="F186" s="17"/>
+      <c r="G186" s="15"/>
     </row>
     <row r="187" ht="32.05" customHeight="1">
-      <c r="A187" t="s" s="9">
+      <c r="A187" t="s" s="11">
         <v>585</v>
       </c>
-      <c r="B187" t="s" s="10">
+      <c r="B187" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="13"/>
+      <c r="E187" t="s" s="16">
+        <v>585</v>
+      </c>
+      <c r="F187" s="17"/>
+      <c r="G187" s="15"/>
     </row>
     <row r="188" ht="32.05" customHeight="1">
-      <c r="A188" t="s" s="9">
+      <c r="A188" t="s" s="11">
         <v>586</v>
       </c>
-      <c r="B188" t="s" s="10">
+      <c r="B188" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
+      <c r="E188" t="s" s="16">
+        <v>586</v>
+      </c>
+      <c r="F188" s="17"/>
+      <c r="G188" s="15"/>
     </row>
     <row r="189" ht="32.05" customHeight="1">
-      <c r="A189" t="s" s="9">
+      <c r="A189" t="s" s="11">
         <v>587</v>
       </c>
-      <c r="B189" t="s" s="10">
+      <c r="B189" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
+      <c r="D189" s="15"/>
+      <c r="E189" t="s" s="16">
+        <v>587</v>
+      </c>
+      <c r="F189" s="17"/>
+      <c r="G189" s="15"/>
     </row>
     <row r="190" ht="32.05" customHeight="1">
-      <c r="A190" t="s" s="9">
+      <c r="A190" t="s" s="11">
         <v>588</v>
       </c>
-      <c r="B190" t="s" s="10">
+      <c r="B190" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
+      <c r="D190" s="15"/>
+      <c r="E190" t="s" s="16">
+        <v>588</v>
+      </c>
+      <c r="F190" s="17"/>
+      <c r="G190" s="15"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
-      <c r="A191" t="s" s="9">
+      <c r="A191" t="s" s="11">
         <v>589</v>
       </c>
-      <c r="B191" t="s" s="10">
+      <c r="B191" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C191" t="s" s="12">
+      <c r="C191" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
+      <c r="D191" s="15"/>
+      <c r="E191" t="s" s="16">
+        <v>589</v>
+      </c>
+      <c r="F191" s="17"/>
+      <c r="G191" s="15"/>
     </row>
     <row r="192" ht="32.05" customHeight="1">
-      <c r="A192" t="s" s="9">
+      <c r="A192" t="s" s="11">
         <v>590</v>
       </c>
-      <c r="B192" t="s" s="10">
+      <c r="B192" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
+      <c r="D192" s="15"/>
+      <c r="E192" t="s" s="16">
+        <v>590</v>
+      </c>
+      <c r="F192" s="17"/>
+      <c r="G192" s="15"/>
     </row>
     <row r="193" ht="32.05" customHeight="1">
-      <c r="A193" t="s" s="9">
+      <c r="A193" t="s" s="11">
         <v>512</v>
       </c>
-      <c r="B193" t="s" s="10">
+      <c r="B193" t="s" s="12">
         <v>513</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="14">
         <v>515</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="14">
         <v>513</v>
       </c>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
-      <c r="A194" t="s" s="9">
+      <c r="A194" t="s" s="11">
         <v>591</v>
       </c>
-      <c r="B194" t="s" s="10">
+      <c r="B194" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="13"/>
+      <c r="E194" t="s" s="16">
+        <v>591</v>
+      </c>
+      <c r="F194" s="17"/>
+      <c r="G194" s="15"/>
     </row>
     <row r="195" ht="32.05" customHeight="1">
-      <c r="A195" t="s" s="9">
+      <c r="A195" t="s" s="11">
         <v>592</v>
       </c>
-      <c r="B195" t="s" s="10">
+      <c r="B195" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
+      <c r="D195" s="15"/>
+      <c r="E195" t="s" s="16">
+        <v>592</v>
+      </c>
+      <c r="F195" s="17"/>
+      <c r="G195" s="15"/>
     </row>
     <row r="196" ht="32.05" customHeight="1">
-      <c r="A196" t="s" s="9">
+      <c r="A196" t="s" s="11">
         <v>593</v>
       </c>
-      <c r="B196" t="s" s="10">
+      <c r="B196" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C196" t="s" s="12">
+      <c r="C196" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="13"/>
+      <c r="D196" s="15"/>
+      <c r="E196" t="s" s="16">
+        <v>593</v>
+      </c>
+      <c r="F196" s="17"/>
+      <c r="G196" s="15"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="9">
+      <c r="A197" t="s" s="11">
         <v>594</v>
       </c>
-      <c r="B197" t="s" s="10">
+      <c r="B197" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="13"/>
+      <c r="E197" t="s" s="16">
+        <v>594</v>
+      </c>
+      <c r="F197" s="17"/>
+      <c r="G197" s="15"/>
     </row>
     <row r="198" ht="32.05" customHeight="1">
-      <c r="A198" t="s" s="9">
+      <c r="A198" t="s" s="11">
         <v>595</v>
       </c>
-      <c r="B198" t="s" s="10">
+      <c r="B198" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
+      <c r="E198" t="s" s="16">
+        <v>595</v>
+      </c>
+      <c r="F198" s="17"/>
+      <c r="G198" s="15"/>
     </row>
     <row r="199" ht="32.05" customHeight="1">
-      <c r="A199" t="s" s="9">
+      <c r="A199" t="s" s="11">
         <v>596</v>
       </c>
-      <c r="B199" t="s" s="10">
+      <c r="B199" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
+      <c r="E199" t="s" s="16">
+        <v>597</v>
+      </c>
+      <c r="F199" s="17"/>
+      <c r="G199" s="15"/>
     </row>
     <row r="200" ht="32.05" customHeight="1">
-      <c r="A200" t="s" s="9">
-        <v>597</v>
-      </c>
-      <c r="B200" t="s" s="10">
+      <c r="A200" t="s" s="11">
+        <v>598</v>
+      </c>
+      <c r="B200" t="s" s="12">
         <v>504</v>
       </c>
-      <c r="C200" t="s" s="12">
+      <c r="C200" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="D200" t="s" s="12">
-        <v>598</v>
-      </c>
-      <c r="E200" t="s" s="12">
+      <c r="D200" t="s" s="14">
         <v>599</v>
       </c>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
+      <c r="E200" t="s" s="14">
+        <v>600</v>
+      </c>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
     </row>
     <row r="201" ht="44.05" customHeight="1">
-      <c r="A201" t="s" s="9">
-        <v>600</v>
-      </c>
-      <c r="B201" t="s" s="10">
+      <c r="A201" t="s" s="11">
+        <v>601</v>
+      </c>
+      <c r="B201" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
+      <c r="D201" s="15"/>
+      <c r="E201" t="s" s="16">
+        <v>601</v>
+      </c>
+      <c r="F201" s="17"/>
+      <c r="G201" s="15"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="9">
-        <v>601</v>
-      </c>
-      <c r="B202" t="s" s="10">
+      <c r="A202" t="s" s="11">
         <v>602</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="B202" t="s" s="12">
+        <v>603</v>
+      </c>
+      <c r="C202" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="13"/>
+      <c r="D202" s="15"/>
+      <c r="E202" t="s" s="16">
+        <v>602</v>
+      </c>
+      <c r="F202" s="17"/>
+      <c r="G202" s="15"/>
     </row>
     <row r="203" ht="32.05" customHeight="1">
-      <c r="A203" t="s" s="9">
-        <v>603</v>
-      </c>
-      <c r="B203" t="s" s="10">
+      <c r="A203" t="s" s="11">
+        <v>604</v>
+      </c>
+      <c r="B203" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="C203" t="s" s="12">
+      <c r="C203" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
+      <c r="D203" s="15"/>
+      <c r="E203" t="s" s="16">
+        <v>604</v>
+      </c>
+      <c r="F203" s="17"/>
+      <c r="G203" s="15"/>
     </row>
     <row r="204" ht="32.05" customHeight="1">
-      <c r="A204" t="s" s="9">
-        <v>604</v>
-      </c>
-      <c r="B204" t="s" s="10">
+      <c r="A204" t="s" s="11">
+        <v>605</v>
+      </c>
+      <c r="B204" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C204" t="s" s="12">
+      <c r="C204" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
+      <c r="D204" s="15"/>
+      <c r="E204" t="s" s="16">
+        <v>605</v>
+      </c>
+      <c r="F204" s="17"/>
+      <c r="G204" s="15"/>
     </row>
     <row r="205" ht="32.05" customHeight="1">
-      <c r="A205" t="s" s="9">
-        <v>605</v>
-      </c>
-      <c r="B205" t="s" s="10">
+      <c r="A205" t="s" s="11">
+        <v>606</v>
+      </c>
+      <c r="B205" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
+      <c r="D205" s="15"/>
+      <c r="E205" t="s" s="16">
+        <v>606</v>
+      </c>
+      <c r="F205" s="17"/>
+      <c r="G205" s="15"/>
     </row>
     <row r="206" ht="32.05" customHeight="1">
-      <c r="A206" t="s" s="9">
-        <v>606</v>
-      </c>
-      <c r="B206" t="s" s="10">
+      <c r="A206" t="s" s="11">
+        <v>607</v>
+      </c>
+      <c r="B206" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
+      <c r="D206" s="15"/>
+      <c r="E206" t="s" s="16">
+        <v>607</v>
+      </c>
+      <c r="F206" s="17"/>
+      <c r="G206" s="15"/>
     </row>
     <row r="207" ht="32.05" customHeight="1">
-      <c r="A207" t="s" s="9">
-        <v>607</v>
-      </c>
-      <c r="B207" t="s" s="10">
+      <c r="A207" t="s" s="11">
+        <v>596</v>
+      </c>
+      <c r="B207" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="14">
         <v>608</v>
       </c>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
+      <c r="D207" s="15"/>
+      <c r="E207" t="s" s="16">
+        <v>596</v>
+      </c>
+      <c r="F207" s="17"/>
+      <c r="G207" s="15"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
-      <c r="A208" t="s" s="9">
+      <c r="A208" t="s" s="11">
         <v>609</v>
       </c>
-      <c r="B208" t="s" s="10">
+      <c r="B208" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="14">
         <v>608</v>
       </c>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
+      <c r="D208" s="15"/>
+      <c r="E208" t="s" s="16">
+        <v>609</v>
+      </c>
+      <c r="F208" s="17"/>
+      <c r="G208" s="15"/>
     </row>
     <row r="209" ht="32.05" customHeight="1">
-      <c r="A209" t="s" s="9">
+      <c r="A209" t="s" s="11">
         <v>610</v>
       </c>
-      <c r="B209" t="s" s="10">
+      <c r="B209" t="s" s="12">
         <v>276</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="14">
         <v>608</v>
       </c>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
+      <c r="D209" s="15"/>
+      <c r="E209" t="s" s="16">
+        <v>610</v>
+      </c>
+      <c r="F209" s="17"/>
+      <c r="G209" s="15"/>
     </row>
     <row r="210" ht="32.05" customHeight="1">
-      <c r="A210" t="s" s="9">
+      <c r="A210" t="s" s="11">
         <v>611</v>
       </c>
-      <c r="B210" t="s" s="10">
+      <c r="B210" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="C210" t="s" s="12">
+      <c r="C210" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
+      <c r="D210" s="15"/>
+      <c r="E210" t="s" s="16">
+        <v>611</v>
+      </c>
+      <c r="F210" s="17"/>
+      <c r="G210" s="15"/>
     </row>
     <row r="211" ht="32.05" customHeight="1">
-      <c r="A211" t="s" s="9">
+      <c r="A211" t="s" s="11">
         <v>612</v>
       </c>
-      <c r="B211" t="s" s="10">
+      <c r="B211" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
+      <c r="E211" t="s" s="16">
+        <v>612</v>
+      </c>
+      <c r="F211" s="17"/>
+      <c r="G211" s="15"/>
     </row>
     <row r="212" ht="32.05" customHeight="1">
-      <c r="A212" t="s" s="9">
+      <c r="A212" t="s" s="11">
         <v>613</v>
       </c>
-      <c r="B212" t="s" s="10">
+      <c r="B212" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="14">
         <v>127</v>
       </c>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
+      <c r="D212" s="15"/>
+      <c r="E212" t="s" s="16">
+        <v>613</v>
+      </c>
+      <c r="F212" s="17"/>
+      <c r="G212" s="15"/>
     </row>
     <row r="213" ht="32.05" customHeight="1">
-      <c r="A213" t="s" s="9">
+      <c r="A213" t="s" s="11">
         <v>614</v>
       </c>
-      <c r="B213" t="s" s="10">
+      <c r="B213" t="s" s="12">
         <v>398</v>
       </c>
-      <c r="C213" t="s" s="12">
+      <c r="C213" t="s" s="14">
         <v>127</v>
       </c>
-      <c r="D213" t="s" s="12">
+      <c r="D213" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
+      <c r="E213" t="s" s="16">
+        <v>614</v>
+      </c>
+      <c r="F213" s="17"/>
+      <c r="G213" s="15"/>
     </row>
     <row r="214" ht="32.05" customHeight="1">
-      <c r="A214" t="s" s="9">
+      <c r="A214" t="s" s="11">
         <v>615</v>
       </c>
-      <c r="B214" t="s" s="10">
+      <c r="B214" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
+      <c r="D214" s="15"/>
+      <c r="E214" t="s" s="16">
+        <v>615</v>
+      </c>
+      <c r="F214" s="17"/>
+      <c r="G214" s="15"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
-      <c r="A215" t="s" s="9">
+      <c r="A215" t="s" s="11">
         <v>616</v>
       </c>
-      <c r="B215" t="s" s="10">
+      <c r="B215" t="s" s="12">
         <v>479</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="D215" s="13"/>
-      <c r="E215" t="s" s="12">
+      <c r="D215" s="15"/>
+      <c r="E215" t="s" s="14">
         <v>479</v>
       </c>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" t="s" s="9">
+      <c r="A216" t="s" s="11">
         <v>617</v>
       </c>
-      <c r="B216" t="s" s="10">
+      <c r="B216" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C216" t="s" s="12">
+      <c r="C216" t="s" s="14">
         <v>164</v>
       </c>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
+      <c r="D216" s="15"/>
+      <c r="E216" t="s" s="14">
+        <v>618</v>
+      </c>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
     </row>
     <row r="217" ht="32.05" customHeight="1">
-      <c r="A217" t="s" s="9">
-        <v>618</v>
-      </c>
-      <c r="B217" t="s" s="10">
+      <c r="A217" t="s" s="11">
+        <v>619</v>
+      </c>
+      <c r="B217" t="s" s="12">
         <v>147</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="14">
         <v>193</v>
       </c>
-      <c r="D217" s="13"/>
-      <c r="E217" t="s" s="12">
+      <c r="D217" s="15"/>
+      <c r="E217" t="s" s="14">
         <v>147</v>
       </c>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
     </row>
     <row r="218" ht="44.05" customHeight="1">
-      <c r="A218" t="s" s="9">
-        <v>619</v>
-      </c>
-      <c r="B218" t="s" s="10">
+      <c r="A218" t="s" s="11">
+        <v>620</v>
+      </c>
+      <c r="B218" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="14">
         <v>193</v>
       </c>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
+      <c r="D218" s="15"/>
+      <c r="E218" t="s" s="14">
+        <v>621</v>
+      </c>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
     </row>
     <row r="219" ht="32.05" customHeight="1">
-      <c r="A219" t="s" s="9">
-        <v>620</v>
-      </c>
-      <c r="B219" t="s" s="10">
+      <c r="A219" t="s" s="11">
+        <v>622</v>
+      </c>
+      <c r="B219" t="s" s="12">
         <v>524</v>
       </c>
-      <c r="C219" t="s" s="12">
+      <c r="C219" t="s" s="14">
         <v>235</v>
       </c>
-      <c r="D219" t="s" s="12">
+      <c r="D219" t="s" s="14">
         <v>525</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="14">
         <v>524</v>
       </c>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
     </row>
     <row r="220" ht="32.05" customHeight="1">
-      <c r="A220" t="s" s="9">
-        <v>621</v>
-      </c>
-      <c r="B220" t="s" s="10">
+      <c r="A220" t="s" s="11">
+        <v>623</v>
+      </c>
+      <c r="B220" t="s" s="12">
         <v>437</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="14">
         <v>439</v>
       </c>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
+      <c r="E220" t="s" s="14">
+        <v>437</v>
+      </c>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
     </row>
     <row r="221" ht="32.05" customHeight="1">
-      <c r="A221" t="s" s="9">
+      <c r="A221" t="s" s="11">
         <v>472</v>
       </c>
-      <c r="B221" t="s" s="10">
+      <c r="B221" t="s" s="12">
         <v>466</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="14">
         <v>252</v>
       </c>
-      <c r="D221" t="s" s="12">
-        <v>622</v>
-      </c>
-      <c r="E221" t="s" s="12">
+      <c r="D221" t="s" s="14">
+        <v>624</v>
+      </c>
+      <c r="E221" t="s" s="14">
         <v>466</v>
       </c>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
     </row>
     <row r="222" ht="32.05" customHeight="1">
-      <c r="A222" t="s" s="9">
-        <v>623</v>
-      </c>
-      <c r="B222" t="s" s="10">
+      <c r="A222" t="s" s="11">
+        <v>625</v>
+      </c>
+      <c r="B222" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C222" t="s" s="12">
+      <c r="C222" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D222" t="s" s="12">
+      <c r="D222" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="13"/>
+      <c r="E222" t="s" s="14">
+        <v>626</v>
+      </c>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
     </row>
     <row r="223" ht="32.05" customHeight="1">
-      <c r="A223" t="s" s="9">
-        <v>624</v>
-      </c>
-      <c r="B223" t="s" s="10">
+      <c r="A223" t="s" s="11">
+        <v>627</v>
+      </c>
+      <c r="B223" t="s" s="12">
         <v>521</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D223" t="s" s="12">
-        <v>625</v>
-      </c>
-      <c r="E223" t="s" s="12">
+      <c r="D223" t="s" s="14">
+        <v>628</v>
+      </c>
+      <c r="E223" t="s" s="14">
         <v>521</v>
       </c>
-      <c r="F223" s="13"/>
-      <c r="G223" s="13"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
     </row>
     <row r="224" ht="56.05" customHeight="1">
-      <c r="A224" t="s" s="9">
-        <v>626</v>
-      </c>
-      <c r="B224" t="s" s="10">
+      <c r="A224" t="s" s="11">
+        <v>629</v>
+      </c>
+      <c r="B224" t="s" s="12">
         <v>376</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="14">
         <v>269</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="14">
         <v>377</v>
       </c>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
+      <c r="E224" t="s" s="14">
+        <v>630</v>
+      </c>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
     </row>
     <row r="225" ht="32.05" customHeight="1">
-      <c r="A225" t="s" s="9">
-        <v>627</v>
-      </c>
-      <c r="B225" t="s" s="10">
+      <c r="A225" t="s" s="11">
+        <v>631</v>
+      </c>
+      <c r="B225" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C225" t="s" s="12">
+      <c r="C225" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D225" t="s" s="12">
+      <c r="D225" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
+      <c r="E225" t="s" s="14">
+        <v>632</v>
+      </c>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
     </row>
     <row r="226" ht="32.05" customHeight="1">
-      <c r="A226" t="s" s="9">
-        <v>628</v>
-      </c>
-      <c r="B226" t="s" s="10">
+      <c r="A226" t="s" s="11">
+        <v>633</v>
+      </c>
+      <c r="B226" t="s" s="12">
         <v>496</v>
       </c>
-      <c r="C226" t="s" s="12">
+      <c r="C226" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D226" t="s" s="12">
+      <c r="D226" t="s" s="14">
         <v>498</v>
       </c>
-      <c r="E226" t="s" s="12">
-        <v>629</v>
-      </c>
-      <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
+      <c r="E226" t="s" s="14">
+        <v>634</v>
+      </c>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
     </row>
     <row r="227" ht="32.05" customHeight="1">
-      <c r="A227" t="s" s="9">
-        <v>630</v>
-      </c>
-      <c r="B227" t="s" s="10">
+      <c r="A227" t="s" s="11">
+        <v>635</v>
+      </c>
+      <c r="B227" t="s" s="12">
         <v>460</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="14">
         <v>532</v>
       </c>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="13"/>
+      <c r="E227" t="s" s="16">
+        <v>635</v>
+      </c>
+      <c r="F227" s="17"/>
+      <c r="G227" s="15"/>
     </row>
     <row r="228" ht="32.05" customHeight="1">
-      <c r="A228" t="s" s="9">
-        <v>631</v>
-      </c>
-      <c r="B228" t="s" s="10">
+      <c r="A228" t="s" s="11">
+        <v>636</v>
+      </c>
+      <c r="B228" t="s" s="12">
         <v>346</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="14">
         <v>288</v>
       </c>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="13"/>
+      <c r="D228" s="15"/>
+      <c r="E228" t="s" s="16">
+        <v>636</v>
+      </c>
+      <c r="F228" s="17"/>
+      <c r="G228" s="15"/>
     </row>
     <row r="229" ht="32.05" customHeight="1">
-      <c r="A229" t="s" s="9">
-        <v>632</v>
-      </c>
-      <c r="B229" t="s" s="10">
-        <v>633</v>
-      </c>
-      <c r="C229" t="s" s="12">
+      <c r="A229" t="s" s="11">
+        <v>637</v>
+      </c>
+      <c r="B229" t="s" s="12">
+        <v>638</v>
+      </c>
+      <c r="C229" t="s" s="14">
         <v>304</v>
       </c>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="13"/>
+      <c r="D229" s="15"/>
+      <c r="E229" t="s" s="16">
+        <v>637</v>
+      </c>
+      <c r="F229" s="17"/>
+      <c r="G229" s="15"/>
     </row>
     <row r="230" ht="32.05" customHeight="1">
-      <c r="A230" t="s" s="9">
-        <v>634</v>
-      </c>
-      <c r="B230" t="s" s="10">
+      <c r="A230" t="s" s="11">
+        <v>639</v>
+      </c>
+      <c r="B230" t="s" s="12">
         <v>410</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="14">
         <v>324</v>
       </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
+      <c r="D230" s="15"/>
+      <c r="E230" t="s" s="16">
+        <v>639</v>
+      </c>
+      <c r="F230" s="17"/>
+      <c r="G230" s="15"/>
     </row>
     <row r="231" ht="32.05" customHeight="1">
-      <c r="A231" t="s" s="9">
-        <v>635</v>
-      </c>
-      <c r="B231" t="s" s="10">
+      <c r="A231" t="s" s="11">
+        <v>640</v>
+      </c>
+      <c r="B231" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="C231" t="s" s="12">
+      <c r="C231" t="s" s="14">
         <v>338</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
+      <c r="D231" s="15"/>
+      <c r="E231" t="s" s="16">
+        <v>640</v>
+      </c>
+      <c r="F231" s="17"/>
+      <c r="G231" s="15"/>
     </row>
     <row r="232" ht="32.05" customHeight="1">
-      <c r="A232" t="s" s="9">
-        <v>636</v>
-      </c>
-      <c r="B232" t="s" s="10">
+      <c r="A232" t="s" s="11">
+        <v>641</v>
+      </c>
+      <c r="B232" t="s" s="12">
         <v>394</v>
       </c>
-      <c r="C232" t="s" s="12">
+      <c r="C232" t="s" s="14">
         <v>351</v>
       </c>
-      <c r="D232" t="s" s="12">
+      <c r="D232" t="s" s="14">
         <v>395</v>
       </c>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="13"/>
+      <c r="E232" t="s" s="16">
+        <v>641</v>
+      </c>
+      <c r="F232" s="17"/>
+      <c r="G232" s="15"/>
     </row>
     <row r="233" ht="32.05" customHeight="1">
-      <c r="A233" t="s" s="9">
-        <v>637</v>
-      </c>
-      <c r="B233" t="s" s="10">
+      <c r="A233" t="s" s="11">
+        <v>642</v>
+      </c>
+      <c r="B233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="14">
+        <v>643</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" t="s" s="16">
+        <v>642</v>
+      </c>
+      <c r="F233" s="17"/>
+      <c r="G233" s="15"/>
+    </row>
+    <row r="234" ht="32.05" customHeight="1">
+      <c r="A234" t="s" s="11">
+        <v>644</v>
+      </c>
+      <c r="B234" t="s" s="12">
+        <v>508</v>
+      </c>
+      <c r="C234" t="s" s="14">
+        <v>645</v>
+      </c>
+      <c r="D234" t="s" s="14">
+        <v>510</v>
+      </c>
+      <c r="E234" t="s" s="14">
+        <v>646</v>
+      </c>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+    </row>
+    <row r="235" ht="32.05" customHeight="1">
+      <c r="A235" t="s" s="11">
+        <v>647</v>
+      </c>
+      <c r="B235" t="s" s="12">
+        <v>437</v>
+      </c>
+      <c r="C235" t="s" s="14">
+        <v>356</v>
+      </c>
+      <c r="D235" t="s" s="14">
+        <v>648</v>
+      </c>
+      <c r="E235" t="s" s="14">
+        <v>649</v>
+      </c>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+    </row>
+    <row r="236" ht="32.05" customHeight="1">
+      <c r="A236" t="s" s="11">
+        <v>650</v>
+      </c>
+      <c r="B236" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="C236" t="s" s="14">
+        <v>356</v>
+      </c>
+      <c r="D236" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="E236" t="s" s="16">
+        <v>650</v>
+      </c>
+      <c r="F236" s="17"/>
+      <c r="G236" s="15"/>
+    </row>
+    <row r="237" ht="32.05" customHeight="1">
+      <c r="A237" t="s" s="11">
+        <v>651</v>
+      </c>
+      <c r="B237" t="s" s="12">
+        <v>363</v>
+      </c>
+      <c r="C237" t="s" s="14">
+        <v>356</v>
+      </c>
+      <c r="D237" t="s" s="14">
+        <v>532</v>
+      </c>
+      <c r="E237" t="s" s="16">
+        <v>651</v>
+      </c>
+      <c r="F237" s="17"/>
+      <c r="G237" s="15"/>
+    </row>
+    <row r="238" ht="32.05" customHeight="1">
+      <c r="A238" t="s" s="11">
+        <v>652</v>
+      </c>
+      <c r="B238" t="s" s="12">
+        <v>460</v>
+      </c>
+      <c r="C238" t="s" s="14">
+        <v>653</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" t="s" s="16">
+        <v>652</v>
+      </c>
+      <c r="F238" s="17"/>
+      <c r="G238" s="15"/>
+    </row>
+    <row r="239" ht="32.05" customHeight="1">
+      <c r="A239" t="s" s="11">
+        <v>654</v>
+      </c>
+      <c r="B239" t="s" s="12">
+        <v>655</v>
+      </c>
+      <c r="C239" t="s" s="14">
+        <v>656</v>
+      </c>
+      <c r="D239" t="s" s="14">
+        <v>657</v>
+      </c>
+      <c r="E239" t="s" s="14">
+        <v>658</v>
+      </c>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+    </row>
+    <row r="240" ht="32.05" customHeight="1">
+      <c r="A240" t="s" s="11">
+        <v>659</v>
+      </c>
+      <c r="B240" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="C240" t="s" s="14">
+        <v>656</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" t="s" s="14">
+        <v>660</v>
+      </c>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+    </row>
+    <row r="241" ht="44.05" customHeight="1">
+      <c r="A241" t="s" s="11">
+        <v>490</v>
+      </c>
+      <c r="B241" t="s" s="12">
         <v>638</v>
       </c>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
-      <c r="G233" s="13"/>
-    </row>
-    <row r="234" ht="32.05" customHeight="1">
-      <c r="A234" t="s" s="9">
-        <v>639</v>
-      </c>
-      <c r="B234" t="s" s="10">
-        <v>508</v>
-      </c>
-      <c r="C234" t="s" s="12">
-        <v>640</v>
-      </c>
-      <c r="D234" t="s" s="12">
-        <v>510</v>
-      </c>
-      <c r="E234" t="s" s="12">
-        <v>641</v>
-      </c>
-      <c r="F234" s="13"/>
-      <c r="G234" s="13"/>
-    </row>
-    <row r="235" ht="32.05" customHeight="1">
-      <c r="A235" t="s" s="9">
-        <v>642</v>
-      </c>
-      <c r="B235" t="s" s="10">
-        <v>437</v>
-      </c>
-      <c r="C235" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="D235" t="s" s="12">
-        <v>643</v>
-      </c>
-      <c r="E235" t="s" s="12">
-        <v>644</v>
-      </c>
-      <c r="F235" s="13"/>
-      <c r="G235" s="13"/>
-    </row>
-    <row r="236" ht="32.05" customHeight="1">
-      <c r="A236" t="s" s="9">
-        <v>645</v>
-      </c>
-      <c r="B236" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="C236" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="D236" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
-      <c r="G236" s="13"/>
-    </row>
-    <row r="237" ht="32.05" customHeight="1">
-      <c r="A237" t="s" s="9">
-        <v>646</v>
-      </c>
-      <c r="B237" t="s" s="10">
-        <v>363</v>
-      </c>
-      <c r="C237" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="D237" t="s" s="12">
-        <v>532</v>
-      </c>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
-      <c r="G237" s="13"/>
-    </row>
-    <row r="238" ht="32.05" customHeight="1">
-      <c r="A238" t="s" s="9">
-        <v>647</v>
-      </c>
-      <c r="B238" t="s" s="10">
-        <v>460</v>
-      </c>
-      <c r="C238" t="s" s="12">
-        <v>648</v>
-      </c>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
-      <c r="G238" s="13"/>
-    </row>
-    <row r="239" ht="32.05" customHeight="1">
-      <c r="A239" t="s" s="9">
-        <v>649</v>
-      </c>
-      <c r="B239" t="s" s="10">
-        <v>650</v>
-      </c>
-      <c r="C239" t="s" s="12">
-        <v>651</v>
-      </c>
-      <c r="D239" t="s" s="12">
-        <v>652</v>
-      </c>
-      <c r="E239" t="s" s="12">
-        <v>653</v>
-      </c>
-      <c r="F239" s="13"/>
-      <c r="G239" s="13"/>
-    </row>
-    <row r="240" ht="32.05" customHeight="1">
-      <c r="A240" t="s" s="9">
-        <v>654</v>
-      </c>
-      <c r="B240" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C240" t="s" s="12">
-        <v>651</v>
-      </c>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-    </row>
-    <row r="241" ht="44.05" customHeight="1">
-      <c r="A241" t="s" s="9">
-        <v>490</v>
-      </c>
-      <c r="B241" t="s" s="10">
-        <v>633</v>
-      </c>
-      <c r="C241" t="s" s="12">
-        <v>655</v>
-      </c>
-      <c r="D241" t="s" s="12">
+      <c r="C241" t="s" s="14">
+        <v>661</v>
+      </c>
+      <c r="D241" t="s" s="14">
         <v>493</v>
       </c>
-      <c r="E241" t="s" s="12">
-        <v>656</v>
-      </c>
-      <c r="F241" s="13"/>
-      <c r="G241" s="13"/>
+      <c r="E241" t="s" s="14">
+        <v>662</v>
+      </c>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
     </row>
     <row r="242" ht="32.05" customHeight="1">
-      <c r="A242" t="s" s="9">
-        <v>657</v>
-      </c>
-      <c r="B242" t="s" s="10">
+      <c r="A242" t="s" s="11">
+        <v>663</v>
+      </c>
+      <c r="B242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="14">
         <v>438</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="14">
         <v>443</v>
       </c>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="13"/>
+      <c r="E242" t="s" s="14">
+        <v>664</v>
+      </c>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
     </row>
     <row r="243" ht="32.05" customHeight="1">
-      <c r="A243" t="s" s="9">
-        <v>658</v>
-      </c>
-      <c r="B243" t="s" s="10">
-        <v>659</v>
-      </c>
-      <c r="C243" t="s" s="12">
-        <v>660</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="A243" t="s" s="11">
+        <v>665</v>
+      </c>
+      <c r="B243" t="s" s="12">
+        <v>666</v>
+      </c>
+      <c r="C243" t="s" s="14">
+        <v>667</v>
+      </c>
+      <c r="D243" t="s" s="14">
         <v>448</v>
       </c>
-      <c r="E243" t="s" s="12">
-        <v>661</v>
-      </c>
-      <c r="F243" s="13"/>
-      <c r="G243" s="13"/>
+      <c r="E243" t="s" s="14">
+        <v>668</v>
+      </c>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
     </row>
     <row r="244" ht="32.05" customHeight="1">
-      <c r="A244" t="s" s="9">
-        <v>662</v>
-      </c>
-      <c r="B244" t="s" s="10">
+      <c r="A244" t="s" s="11">
+        <v>669</v>
+      </c>
+      <c r="B244" t="s" s="12">
         <v>469</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="14">
         <v>447</v>
       </c>
-      <c r="D244" s="13"/>
-      <c r="E244" t="s" s="12">
-        <v>663</v>
-      </c>
-      <c r="F244" s="13"/>
-      <c r="G244" s="13"/>
+      <c r="D244" s="15"/>
+      <c r="E244" t="s" s="14">
+        <v>670</v>
+      </c>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
     </row>
     <row r="245" ht="32.05" customHeight="1">
-      <c r="A245" t="s" s="9">
-        <v>664</v>
-      </c>
-      <c r="B245" t="s" s="10">
+      <c r="A245" t="s" s="11">
+        <v>671</v>
+      </c>
+      <c r="B245" t="s" s="12">
         <v>524</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>665</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="14">
+        <v>672</v>
+      </c>
+      <c r="D245" t="s" s="14">
         <v>525</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="14">
         <v>524</v>
       </c>
-      <c r="F245" s="13"/>
-      <c r="G245" s="13"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
     </row>
     <row r="246" ht="32.05" customHeight="1">
-      <c r="A246" t="s" s="9">
-        <v>666</v>
-      </c>
-      <c r="B246" t="s" s="10">
-        <v>667</v>
-      </c>
-      <c r="C246" t="s" s="12">
+      <c r="A246" t="s" s="11">
+        <v>673</v>
+      </c>
+      <c r="B246" t="s" s="12">
+        <v>674</v>
+      </c>
+      <c r="C246" t="s" s="14">
         <v>480</v>
       </c>
-      <c r="D246" t="s" s="12">
-        <v>668</v>
-      </c>
-      <c r="E246" t="s" s="12">
-        <v>667</v>
-      </c>
-      <c r="F246" s="13"/>
-      <c r="G246" s="13"/>
+      <c r="D246" t="s" s="14">
+        <v>675</v>
+      </c>
+      <c r="E246" t="s" s="14">
+        <v>674</v>
+      </c>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
     </row>
     <row r="247" ht="32.05" customHeight="1">
-      <c r="A247" t="s" s="9">
-        <v>669</v>
-      </c>
-      <c r="B247" t="s" s="10">
-        <v>670</v>
-      </c>
-      <c r="C247" t="s" s="12">
+      <c r="A247" t="s" s="11">
+        <v>676</v>
+      </c>
+      <c r="B247" t="s" s="12">
+        <v>677</v>
+      </c>
+      <c r="C247" t="s" s="14">
         <v>487</v>
       </c>
-      <c r="D247" s="13"/>
-      <c r="E247" t="s" s="12">
-        <v>671</v>
-      </c>
-      <c r="F247" s="13"/>
-      <c r="G247" s="13"/>
+      <c r="D247" s="15"/>
+      <c r="E247" t="s" s="14">
+        <v>678</v>
+      </c>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
     </row>
     <row r="248" ht="32.05" customHeight="1">
-      <c r="A248" t="s" s="9">
-        <v>672</v>
-      </c>
-      <c r="B248" t="s" s="10">
+      <c r="A248" t="s" s="11">
+        <v>679</v>
+      </c>
+      <c r="B248" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="14">
         <v>138</v>
       </c>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="13"/>
+      <c r="D248" s="15"/>
+      <c r="E248" t="s" s="16">
+        <v>679</v>
+      </c>
+      <c r="F248" s="17"/>
+      <c r="G248" s="15"/>
     </row>
     <row r="249" ht="32.05" customHeight="1">
-      <c r="A249" t="s" s="9">
-        <v>673</v>
-      </c>
-      <c r="B249" t="s" s="10">
+      <c r="A249" t="s" s="11">
+        <v>680</v>
+      </c>
+      <c r="B249" t="s" s="12">
         <v>178</v>
       </c>
-      <c r="C249" t="s" s="12">
+      <c r="C249" t="s" s="14">
         <v>200</v>
       </c>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="13"/>
+      <c r="D249" s="15"/>
+      <c r="E249" t="s" s="16">
+        <v>680</v>
+      </c>
+      <c r="F249" s="17"/>
+      <c r="G249" s="15"/>
     </row>
     <row r="250" ht="32.05" customHeight="1">
-      <c r="A250" t="s" s="9">
-        <v>674</v>
-      </c>
-      <c r="B250" t="s" s="10">
+      <c r="A250" t="s" s="11">
+        <v>681</v>
+      </c>
+      <c r="B250" t="s" s="12">
         <v>303</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="13"/>
+      <c r="D250" s="15"/>
+      <c r="E250" t="s" s="16">
+        <v>681</v>
+      </c>
+      <c r="F250" s="17"/>
+      <c r="G250" s="15"/>
     </row>
     <row r="251" ht="32.05" customHeight="1">
-      <c r="A251" t="s" s="9">
-        <v>675</v>
-      </c>
-      <c r="B251" t="s" s="10">
+      <c r="A251" t="s" s="11">
+        <v>682</v>
+      </c>
+      <c r="B251" t="s" s="12">
         <v>303</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="14">
         <v>280</v>
       </c>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="13"/>
+      <c r="D251" s="15"/>
+      <c r="E251" t="s" s="16">
+        <v>682</v>
+      </c>
+      <c r="F251" s="17"/>
+      <c r="G251" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
